--- a/xlsx/country_comparison/problem_positive.xlsx
+++ b/xlsx/country_comparison/problem_positive.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.597014925373134</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.548387096774194</v>
+        <v>0.607734806629834</v>
       </c>
       <c r="D2" t="n">
-        <v>0.586206896551724</v>
+        <v>0.786885245901639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.514705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.534883720930233</v>
+        <v>0.537847090148345</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.597014925373134</v>
+        <v>0.640845070422535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.548387096774194</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.758620689655172</v>
+        <v>0.811475409836066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.632352941176471</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="F3" t="n">
-        <v>0.558139534883721</v>
+        <v>0.579688094332446</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.477611940298507</v>
+        <v>0.591549295774648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.580645161290323</v>
+        <v>0.646408839779006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.620689655172414</v>
+        <v>0.80327868852459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.485294117647059</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="F4" t="n">
-        <v>0.505813953488372</v>
+        <v>0.486496766831495</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_positive.xlsx
+++ b/xlsx/country_comparison/problem_positive.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.676056338028169</v>
+        <v>0.529032258064516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.607734806629834</v>
+        <v>0.587846763540291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.786885245901639</v>
+        <v>0.736648250460405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.537847090148345</v>
+        <v>0.538403329549754</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.640845070422535</v>
+        <v>0.643548387096774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.651933701657459</v>
+        <v>0.64332892998679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.811475409836066</v>
+        <v>0.762430939226519</v>
       </c>
       <c r="E3" t="n">
-        <v>0.521739130434783</v>
+        <v>0.616459627329193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.579688094332446</v>
+        <v>0.580401059402194</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.591549295774648</v>
+        <v>0.508064516129032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.646408839779006</v>
+        <v>0.593130779392338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.80327868852459</v>
+        <v>0.78268876611418</v>
       </c>
       <c r="E4" t="n">
-        <v>0.478260869565217</v>
+        <v>0.454968944099379</v>
       </c>
       <c r="F4" t="n">
-        <v>0.486496766831495</v>
+        <v>0.487703367385547</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_positive.xlsx
+++ b/xlsx/country_comparison/problem_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Income inequality in [Country]</t>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.529032258064516</v>
+        <v>0.539298763044628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.587846763540291</v>
+        <v>0.585441460206269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.736648250460405</v>
+        <v>0.550892569231066</v>
       </c>
       <c r="E2" t="n">
-        <v>0.543478260869565</v>
+        <v>0.588228926279319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.538403329549754</v>
+        <v>0.727193125034814</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.561960331138819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.643548387096774</v>
+        <v>0.563673892723787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.64332892998679</v>
+        <v>0.654885280623541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.762430939226519</v>
+        <v>0.647591890825093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.616459627329193</v>
+        <v>0.631138762171261</v>
       </c>
       <c r="F3" t="n">
-        <v>0.580401059402194</v>
+        <v>0.742285922036724</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.630419156999443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.508064516129032</v>
+        <v>0.485725745793805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.593130779392338</v>
+        <v>0.565091188844125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78268876611418</v>
+        <v>0.507180282457537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.454968944099379</v>
+        <v>0.574927200793874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.487703367385547</v>
+        <v>0.777273983923691</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.514373792441811</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_positive.xlsx
+++ b/xlsx/country_comparison/problem_positive.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.539298763044628</v>
+        <v>0.541908308329885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.585441460206269</v>
+        <v>0.587901747369438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.550892569231066</v>
+        <v>0.542138539798704</v>
       </c>
       <c r="E2" t="n">
-        <v>0.588228926279319</v>
+        <v>0.579096437421403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.727193125034814</v>
+        <v>0.72366606828964</v>
       </c>
       <c r="G2" t="n">
-        <v>0.561960331138819</v>
+        <v>0.568908613178099</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563673892723787</v>
+        <v>0.569710797782703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.654885280623541</v>
+        <v>0.654845868848438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.647591890825093</v>
+        <v>0.65765676443464</v>
       </c>
       <c r="E3" t="n">
-        <v>0.631138762171261</v>
+        <v>0.631553070302643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.742285922036724</v>
+        <v>0.740925666916087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.630419156999443</v>
+        <v>0.633173069404784</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.485725745793805</v>
+        <v>0.490577281973682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.565091188844125</v>
+        <v>0.568724961181572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.507180282457537</v>
+        <v>0.503281153790346</v>
       </c>
       <c r="E4" t="n">
-        <v>0.574927200793874</v>
+        <v>0.576443592942387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.777273983923691</v>
+        <v>0.779289633143143</v>
       </c>
       <c r="G4" t="n">
-        <v>0.514373792441811</v>
+        <v>0.495004040257602</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_positive.xlsx
+++ b/xlsx/country_comparison/problem_positive.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541908308329885</v>
+        <v>0.550768403206271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.587901747369438</v>
+        <v>0.585794025445152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.542138539798704</v>
+        <v>0.541952525251571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.579096437421403</v>
+        <v>0.57905854763699</v>
       </c>
       <c r="F2" t="n">
-        <v>0.72366606828964</v>
+        <v>0.710900350676386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.568908613178099</v>
+        <v>0.568877052905481</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.569710797782703</v>
+        <v>0.591855289897272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.654845868848438</v>
+        <v>0.655862045124518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65765676443464</v>
+        <v>0.657613954375195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.631553070302643</v>
+        <v>0.631573977166983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.740925666916087</v>
+        <v>0.72948771969849</v>
       </c>
       <c r="G3" t="n">
-        <v>0.633173069404784</v>
+        <v>0.633172213685746</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.490577281973682</v>
+        <v>0.502130679025185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568724961181572</v>
+        <v>0.567313448641177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.503281153790346</v>
+        <v>0.503228122279896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.576443592942387</v>
+        <v>0.576446559584848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.779289633143143</v>
+        <v>0.750845858279366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.495004040257602</v>
+        <v>0.494971525760212</v>
       </c>
     </row>
   </sheetData>
